--- a/scripts/correlation/metric_df/PNA_metrics.xlsx
+++ b/scripts/correlation/metric_df/PNA_metrics.xlsx
@@ -480,16 +480,16 @@
         <v>2.286414188</v>
       </c>
       <c r="C2" t="n">
-        <v>2.798404006603276</v>
+        <v>2.724480956216224</v>
       </c>
       <c r="D2" t="n">
         <v>3.020173157764432</v>
       </c>
       <c r="E2" t="n">
-        <v>5.596808013206552</v>
+        <v>8.173442868648671</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3853666199953332</v>
+        <v>0.421533108866443</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -507,16 +507,16 @@
         <v>0.431483132</v>
       </c>
       <c r="C3" t="n">
-        <v>2.659431920590732</v>
+        <v>2.654798193850898</v>
       </c>
       <c r="D3" t="n">
         <v>2.673333100810235</v>
       </c>
       <c r="E3" t="n">
-        <v>5.318863841181464</v>
+        <v>7.964394581552693</v>
       </c>
       <c r="F3" t="n">
-        <v>3.683779077907791</v>
+        <v>3.717295129512951</v>
       </c>
       <c r="G3" t="inlineStr"/>
     </row>
@@ -530,16 +530,16 @@
         <v>1.743971301</v>
       </c>
       <c r="C4" t="n">
-        <v>2.596490948763077</v>
+        <v>2.596814210911829</v>
       </c>
       <c r="D4" t="n">
         <v>2.597460735209333</v>
       </c>
       <c r="E4" t="n">
-        <v>5.192981897526153</v>
+        <v>7.790442632735486</v>
       </c>
       <c r="F4" t="n">
-        <v>6.710909240000003</v>
+        <v>7.52735022666667</v>
       </c>
       <c r="G4" t="inlineStr"/>
     </row>
@@ -553,16 +553,16 @@
         <v>4.312126259</v>
       </c>
       <c r="C5" t="n">
-        <v>2.545194458515379</v>
+        <v>2.56189262917655</v>
       </c>
       <c r="D5" t="n">
         <v>2.595288970498892</v>
       </c>
       <c r="E5" t="n">
-        <v>5.090388917030758</v>
+        <v>7.685677887529651</v>
       </c>
       <c r="F5" t="n">
-        <v>3.212354800234261</v>
+        <v>3.442741497278842</v>
       </c>
       <c r="G5" t="inlineStr"/>
     </row>
@@ -576,16 +576,16 @@
         <v>1.811780286</v>
       </c>
       <c r="C6" t="n">
-        <v>3.071407695328351</v>
+        <v>3.252326131378952</v>
       </c>
       <c r="D6" t="n">
         <v>3.614163003480155</v>
       </c>
       <c r="E6" t="n">
-        <v>6.142815390656702</v>
+        <v>9.756978394136857</v>
       </c>
       <c r="F6" t="n">
-        <v>4.107528583333329</v>
+        <v>3.936931855555551</v>
       </c>
       <c r="G6" t="inlineStr"/>
     </row>
@@ -599,16 +599,16 @@
         <v>3.401085969</v>
       </c>
       <c r="C7" t="n">
-        <v>2.284039414450078</v>
+        <v>2.30299731910895</v>
       </c>
       <c r="D7" t="n">
         <v>2.340913128426695</v>
       </c>
       <c r="E7" t="n">
-        <v>4.568078828900155</v>
+        <v>6.908991957326851</v>
       </c>
       <c r="F7" t="n">
-        <v>1.897542749999998</v>
+        <v>2.314081659999998</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -626,16 +626,16 @@
         <v>1.153970235</v>
       </c>
       <c r="C8" t="n">
-        <v>2.082337392681221</v>
+        <v>2.062023464144632</v>
       </c>
       <c r="D8" t="n">
         <v>2.143279178290989</v>
       </c>
       <c r="E8" t="n">
-        <v>4.164674785362442</v>
+        <v>6.186070392433894</v>
       </c>
       <c r="F8" t="n">
-        <v>1.832499699999997</v>
+        <v>2.286229233333331</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -653,16 +653,16 @@
         <v>1.425558825</v>
       </c>
       <c r="C9" t="n">
-        <v>2.448469651338077</v>
+        <v>2.403477796366966</v>
       </c>
       <c r="D9" t="n">
-        <v>2.622397486596071</v>
+        <v>2.467945786510408</v>
       </c>
       <c r="E9" t="n">
-        <v>4.896939302676154</v>
+        <v>7.210433389100897</v>
       </c>
       <c r="F9" t="n">
-        <v>8.287358157142863</v>
+        <v>11.67145754285715</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -680,16 +680,16 @@
         <v>0.852472568</v>
       </c>
       <c r="C10" t="n">
-        <v>2.411049928825561</v>
+        <v>2.477194489863107</v>
       </c>
       <c r="D10" t="n">
         <v>2.6094836119382</v>
       </c>
       <c r="E10" t="n">
-        <v>4.822099857651121</v>
+        <v>7.431583469589321</v>
       </c>
       <c r="F10" t="n">
-        <v>12.03722148333333</v>
+        <v>13.19470715555556</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>

--- a/scripts/correlation/metric_df/PNA_metrics.xlsx
+++ b/scripts/correlation/metric_df/PNA_metrics.xlsx
@@ -480,16 +480,16 @@
         <v>2.286414188</v>
       </c>
       <c r="C2" t="n">
-        <v>2.724480956216224</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>3.020173157764432</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>8.173442868648671</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.421533108866443</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -507,16 +507,16 @@
         <v>0.431483132</v>
       </c>
       <c r="C3" t="n">
-        <v>2.654798193850898</v>
+        <v>1.772954613727155</v>
       </c>
       <c r="D3" t="n">
         <v>2.673333100810235</v>
       </c>
       <c r="E3" t="n">
-        <v>7.964394581552693</v>
+        <v>5.318863841181464</v>
       </c>
       <c r="F3" t="n">
-        <v>3.717295129512951</v>
+        <v>2.455852718605194</v>
       </c>
       <c r="G3" t="inlineStr"/>
     </row>
@@ -530,16 +530,16 @@
         <v>1.743971301</v>
       </c>
       <c r="C4" t="n">
-        <v>2.596814210911829</v>
+        <v>1.730993965842051</v>
       </c>
       <c r="D4" t="n">
         <v>2.597460735209333</v>
       </c>
       <c r="E4" t="n">
-        <v>7.790442632735486</v>
+        <v>5.192981897526153</v>
       </c>
       <c r="F4" t="n">
-        <v>7.52735022666667</v>
+        <v>4.473939493333336</v>
       </c>
       <c r="G4" t="inlineStr"/>
     </row>
@@ -553,16 +553,16 @@
         <v>4.312126259</v>
       </c>
       <c r="C5" t="n">
-        <v>2.56189262917655</v>
+        <v>1.696796305676919</v>
       </c>
       <c r="D5" t="n">
         <v>2.595288970498892</v>
       </c>
       <c r="E5" t="n">
-        <v>7.685677887529651</v>
+        <v>5.090388917030758</v>
       </c>
       <c r="F5" t="n">
-        <v>3.442741497278842</v>
+        <v>2.141569866822841</v>
       </c>
       <c r="G5" t="inlineStr"/>
     </row>
@@ -576,16 +576,16 @@
         <v>1.811780286</v>
       </c>
       <c r="C6" t="n">
-        <v>3.252326131378952</v>
+        <v>2.047605130218901</v>
       </c>
       <c r="D6" t="n">
         <v>3.614163003480155</v>
       </c>
       <c r="E6" t="n">
-        <v>9.756978394136857</v>
+        <v>6.142815390656702</v>
       </c>
       <c r="F6" t="n">
-        <v>3.936931855555551</v>
+        <v>2.738352388888886</v>
       </c>
       <c r="G6" t="inlineStr"/>
     </row>
@@ -599,16 +599,16 @@
         <v>3.401085969</v>
       </c>
       <c r="C7" t="n">
-        <v>2.30299731910895</v>
+        <v>0.7423885668244871</v>
       </c>
       <c r="D7" t="n">
-        <v>2.340913128426695</v>
+        <v>2.227165700473461</v>
       </c>
       <c r="E7" t="n">
-        <v>6.908991957326851</v>
+        <v>2.227165700473461</v>
       </c>
       <c r="F7" t="n">
-        <v>2.314081659999998</v>
+        <v>0.2159753399999993</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -626,16 +626,16 @@
         <v>1.153970235</v>
       </c>
       <c r="C8" t="n">
-        <v>2.062023464144632</v>
+        <v>0.714426392763663</v>
       </c>
       <c r="D8" t="n">
         <v>2.143279178290989</v>
       </c>
       <c r="E8" t="n">
-        <v>6.186070392433894</v>
+        <v>2.143279178290989</v>
       </c>
       <c r="F8" t="n">
-        <v>2.286229233333331</v>
+        <v>0.1571036999999985</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -653,16 +653,16 @@
         <v>1.425558825</v>
       </c>
       <c r="C9" t="n">
-        <v>2.403477796366966</v>
+        <v>1.632313100892051</v>
       </c>
       <c r="D9" t="n">
-        <v>2.467945786510408</v>
+        <v>2.622397486596071</v>
       </c>
       <c r="E9" t="n">
-        <v>7.210433389100897</v>
+        <v>4.896939302676154</v>
       </c>
       <c r="F9" t="n">
-        <v>11.67145754285715</v>
+        <v>5.524905438095242</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -680,16 +680,16 @@
         <v>0.852472568</v>
       </c>
       <c r="C10" t="n">
-        <v>2.477194489863107</v>
+        <v>1.60736661921704</v>
       </c>
       <c r="D10" t="n">
         <v>2.6094836119382</v>
       </c>
       <c r="E10" t="n">
-        <v>7.431583469589321</v>
+        <v>4.822099857651121</v>
       </c>
       <c r="F10" t="n">
-        <v>13.19470715555556</v>
+        <v>8.024814322222223</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>

--- a/scripts/correlation/metric_df/PNA_metrics.xlsx
+++ b/scripts/correlation/metric_df/PNA_metrics.xlsx
@@ -518,7 +518,11 @@
       <c r="F3" t="n">
         <v>2.455852718605194</v>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -541,7 +545,11 @@
       <c r="F4" t="n">
         <v>4.473939493333336</v>
       </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -564,7 +572,11 @@
       <c r="F5" t="n">
         <v>2.141569866822841</v>
       </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -587,7 +599,11 @@
       <c r="F6" t="n">
         <v>2.738352388888886</v>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -691,7 +707,11 @@
       <c r="F10" t="n">
         <v>8.024814322222223</v>
       </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/scripts/correlation/metric_df/PNA_metrics.xlsx
+++ b/scripts/correlation/metric_df/PNA_metrics.xlsx
@@ -480,16 +480,16 @@
         <v>2.286414188</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2.798404006603276</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>3.020173157764432</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5.596808013206552</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.3853666199953332</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -507,7 +507,7 @@
         <v>0.431483132</v>
       </c>
       <c r="C3" t="n">
-        <v>1.772954613727155</v>
+        <v>2.659431920590732</v>
       </c>
       <c r="D3" t="n">
         <v>2.673333100810235</v>
@@ -516,7 +516,7 @@
         <v>5.318863841181464</v>
       </c>
       <c r="F3" t="n">
-        <v>2.455852718605194</v>
+        <v>3.683779077907791</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -534,7 +534,7 @@
         <v>1.743971301</v>
       </c>
       <c r="C4" t="n">
-        <v>1.730993965842051</v>
+        <v>2.596490948763077</v>
       </c>
       <c r="D4" t="n">
         <v>2.597460735209333</v>
@@ -543,7 +543,7 @@
         <v>5.192981897526153</v>
       </c>
       <c r="F4" t="n">
-        <v>4.473939493333336</v>
+        <v>6.710909240000003</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -561,7 +561,7 @@
         <v>4.312126259</v>
       </c>
       <c r="C5" t="n">
-        <v>1.696796305676919</v>
+        <v>2.545194458515379</v>
       </c>
       <c r="D5" t="n">
         <v>2.595288970498892</v>
@@ -570,7 +570,7 @@
         <v>5.090388917030758</v>
       </c>
       <c r="F5" t="n">
-        <v>2.141569866822841</v>
+        <v>3.212354800234261</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -588,16 +588,16 @@
         <v>1.811780286</v>
       </c>
       <c r="C6" t="n">
-        <v>2.047605130218901</v>
+        <v>2.227581134929226</v>
       </c>
       <c r="D6" t="n">
-        <v>3.614163003480155</v>
+        <v>2.528652387176547</v>
       </c>
       <c r="E6" t="n">
-        <v>6.142815390656702</v>
+        <v>4.455162269858452</v>
       </c>
       <c r="F6" t="n">
-        <v>2.738352388888886</v>
+        <v>3.966634849999994</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -615,16 +615,16 @@
         <v>3.401085969</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7423885668244871</v>
+        <v>2.284039414450078</v>
       </c>
       <c r="D7" t="n">
-        <v>2.227165700473461</v>
+        <v>2.340913128426695</v>
       </c>
       <c r="E7" t="n">
-        <v>2.227165700473461</v>
+        <v>4.568078828900155</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2159753399999993</v>
+        <v>1.897542749999998</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -642,16 +642,16 @@
         <v>1.153970235</v>
       </c>
       <c r="C8" t="n">
-        <v>0.714426392763663</v>
+        <v>2.082337392681221</v>
       </c>
       <c r="D8" t="n">
         <v>2.143279178290989</v>
       </c>
       <c r="E8" t="n">
-        <v>2.143279178290989</v>
+        <v>4.164674785362442</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1571036999999985</v>
+        <v>1.832499699999997</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -669,16 +669,16 @@
         <v>1.425558825</v>
       </c>
       <c r="C9" t="n">
-        <v>1.632313100892051</v>
+        <v>2.371243801295245</v>
       </c>
       <c r="D9" t="n">
-        <v>2.622397486596071</v>
+        <v>2.467945786510408</v>
       </c>
       <c r="E9" t="n">
-        <v>4.896939302676154</v>
+        <v>4.74248760259049</v>
       </c>
       <c r="F9" t="n">
-        <v>5.524905438095242</v>
+        <v>10.91585047857143</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>0.852472568</v>
       </c>
       <c r="C10" t="n">
-        <v>1.60736661921704</v>
+        <v>2.411049928825561</v>
       </c>
       <c r="D10" t="n">
         <v>2.6094836119382</v>
@@ -705,7 +705,7 @@
         <v>4.822099857651121</v>
       </c>
       <c r="F10" t="n">
-        <v>8.024814322222223</v>
+        <v>12.03722148333333</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>

--- a/scripts/correlation/metric_df/PNA_metrics.xlsx
+++ b/scripts/correlation/metric_df/PNA_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,25 +446,40 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>SASA_weighted</t>
+          <t>SASA</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>SASA_weighted_max</t>
+          <t>flexibility</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>SASA_weighted_sum</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>weighted_mean_flexibility</t>
+          <t>theta</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>conformation</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>monosaccharides</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>motifs</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>class</t>
         </is>
@@ -477,21 +492,36 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.286414188</v>
+        <v>2.286414187922931</v>
       </c>
       <c r="C2" t="n">
-        <v>2.798404006603276</v>
+        <v>2.80914078282125</v>
       </c>
       <c r="D2" t="n">
-        <v>3.020173157764432</v>
+        <v>0.2655432209887656</v>
       </c>
       <c r="E2" t="n">
-        <v>5.596808013206552</v>
+        <v>0.4375</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3853666199953332</v>
+        <v>4.95</v>
       </c>
       <c r="G2" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)', 'GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)GalNAc']</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -504,21 +534,36 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.431483132</v>
+        <v>0.4314831321072782</v>
       </c>
       <c r="C3" t="n">
         <v>2.659431920590732</v>
       </c>
       <c r="D3" t="n">
-        <v>2.673333100810235</v>
+        <v>3.562389572290562</v>
       </c>
       <c r="E3" t="n">
-        <v>5.318863841181464</v>
+        <v>0.473</v>
       </c>
       <c r="F3" t="n">
-        <v>3.683779077907791</v>
+        <v>1.565</v>
       </c>
       <c r="G3" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)', 'GalNAc(b1-3)']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)GalNAc']</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -531,21 +576,36 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.743971301</v>
+        <v>1.743971301105321</v>
       </c>
       <c r="C4" t="n">
         <v>2.596490948763077</v>
       </c>
       <c r="D4" t="n">
-        <v>2.597460735209333</v>
+        <v>7.206390000000002</v>
       </c>
       <c r="E4" t="n">
-        <v>5.192981897526153</v>
+        <v>0.465</v>
       </c>
       <c r="F4" t="n">
-        <v>6.710909240000003</v>
+        <v>11.895</v>
       </c>
       <c r="G4" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)', 'GalNAc(b1-3)']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)GalNAc']</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -558,21 +618,36 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.312126259</v>
+        <v>4.312126259203748</v>
       </c>
       <c r="C5" t="n">
         <v>2.545194458515379</v>
       </c>
       <c r="D5" t="n">
-        <v>2.595288970498892</v>
+        <v>3.446348222320626</v>
       </c>
       <c r="E5" t="n">
-        <v>5.090388917030758</v>
+        <v>0.4605</v>
       </c>
       <c r="F5" t="n">
-        <v>3.212354800234261</v>
+        <v>3.315</v>
       </c>
       <c r="G5" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)', 'GalNAc(b1-4)']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)GalNAc']</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -585,21 +660,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.811780286</v>
+        <v>1.811780285560039</v>
       </c>
       <c r="C6" t="n">
         <v>2.227581134929226</v>
       </c>
       <c r="D6" t="n">
-        <v>2.528652387176547</v>
+        <v>4.613883333333333</v>
       </c>
       <c r="E6" t="n">
-        <v>4.455162269858452</v>
+        <v>0.4505</v>
       </c>
       <c r="F6" t="n">
-        <v>3.966634849999994</v>
+        <v>9.254999999999999</v>
       </c>
       <c r="G6" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)', 'GalNAc(b1-4)']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)GalNAc']</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -612,21 +702,36 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.401085969</v>
+        <v>3.401085968701475</v>
       </c>
       <c r="C7" t="n">
-        <v>2.284039414450078</v>
+        <v>2.303025462805305</v>
       </c>
       <c r="D7" t="n">
-        <v>2.340913128426695</v>
+        <v>2.15073</v>
       </c>
       <c r="E7" t="n">
-        <v>4.568078828900155</v>
+        <v>0.458</v>
       </c>
       <c r="F7" t="n">
-        <v>1.897542749999998</v>
+        <v>14.845</v>
       </c>
       <c r="G7" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)', 'GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)GalNAc']</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -639,21 +744,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.153970235</v>
+        <v>1.153970235235721</v>
       </c>
       <c r="C8" t="n">
-        <v>2.082337392681221</v>
+        <v>2.137772025223793</v>
       </c>
       <c r="D8" t="n">
-        <v>2.143279178290989</v>
+        <v>1.94865</v>
       </c>
       <c r="E8" t="n">
-        <v>4.164674785362442</v>
+        <v>0.4805</v>
       </c>
       <c r="F8" t="n">
-        <v>1.832499699999997</v>
+        <v>6.46</v>
       </c>
       <c r="G8" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)', 'GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)GalNAc']</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -662,25 +782,40 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)GlcNAc(b1-6)[Gal(b1-3)]GalNAc</t>
+          <t>Gal(b1-4)GlcNAc(b1-6)[Gal(b1-3)]GalNAc</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.425558825</v>
+        <v>5.00414369387</v>
       </c>
       <c r="C9" t="n">
-        <v>2.371243801295245</v>
+        <v>2.239803752931464</v>
       </c>
       <c r="D9" t="n">
-        <v>2.467945786510408</v>
+        <v>2.6737</v>
       </c>
       <c r="E9" t="n">
-        <v>4.74248760259049</v>
+        <v>0.4675</v>
       </c>
       <c r="F9" t="n">
-        <v>10.91585047857143</v>
+        <v>6.824999999999999</v>
       </c>
       <c r="G9" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)', 'GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)GalNAc']</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -689,25 +824,166 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
+          <t>GlcNAc(b1-3)Gal(b1-4)GlcNAc(b1-6)[Gal(b1-3)]GalNAc</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5.044309928408428</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.270806597458007</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5.737725</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.459</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)', 'GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)GalNAc']</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)GlcNAc(b1-6)[Gal(b1-3)]GalNAc</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.425558825367835</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.390474967985425</v>
+      </c>
+      <c r="D11" t="n">
+        <v>11.33917857142857</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.4945000000000001</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2.525</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)', 'GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)GalNAc']</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc(b1-6)[Gal(b1-3)]GalNAc</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.0676529266794538</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.301597859403619</v>
+      </c>
+      <c r="D12" t="n">
+        <v>9.623180000000001</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.4535</v>
+      </c>
+      <c r="F12" t="n">
+        <v>10.51</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)', 'GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)GalNAc']</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
           <t>Neu5Ac(a2-8)Neu5Ac(a2-8)Neu5Ac(a2-3)[Gal(b1-3)GalNAc(b1-4)]Gal(b1-4)Glc</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>0.852472568</v>
-      </c>
-      <c r="C10" t="n">
+      <c r="B13" t="n">
+        <v>0.8524725682829973</v>
+      </c>
+      <c r="C13" t="n">
         <v>2.411049928825561</v>
       </c>
-      <c r="D10" t="n">
-        <v>2.6094836119382</v>
-      </c>
-      <c r="E10" t="n">
-        <v>4.822099857651121</v>
-      </c>
-      <c r="F10" t="n">
-        <v>12.03722148333333</v>
-      </c>
-      <c r="G10" t="inlineStr">
+      <c r="D13" t="n">
+        <v>12.57778333333333</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F13" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)', 'GalNAc(b1-4)']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)GalNAc']</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
